--- a/Afficheur temp/TEMP_BOM.xlsx
+++ b/Afficheur temp/TEMP_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Tableau de bord\Carte élecs\Afficheur temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\Dashboard_display\Afficheur temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF20A708-15F0-4014-88C4-201266DF5A13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7C134-3543-4154-AD7F-CAE2BC93CE72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Afficheur temp/TEMP_BOM.xlsx
+++ b/Afficheur temp/TEMP_BOM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\Dashboard_display\Afficheur temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7C134-3543-4154-AD7F-CAE2BC93CE72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD21CD59-F962-43D2-88E4-70934EE042A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMP_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>21</v>
